--- a/SchedulingData/dynamic9/pso/scheduling2_10.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>257.14</v>
+        <v>222.96</v>
       </c>
       <c r="D2" t="n">
-        <v>300.72</v>
+        <v>259.04</v>
       </c>
       <c r="E2" t="n">
-        <v>12.548</v>
+        <v>11.816</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>221.96</v>
+        <v>259.04</v>
       </c>
       <c r="D3" t="n">
-        <v>280.06</v>
+        <v>308.74</v>
       </c>
       <c r="E3" t="n">
-        <v>10.684</v>
+        <v>8.956</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>300.72</v>
+        <v>279.28</v>
       </c>
       <c r="D4" t="n">
-        <v>350.92</v>
+        <v>312.98</v>
       </c>
       <c r="E4" t="n">
-        <v>10.128</v>
+        <v>12.812</v>
       </c>
     </row>
     <row r="5">
@@ -523,112 +523,112 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.2</v>
+        <v>234.76</v>
       </c>
       <c r="D5" t="n">
-        <v>280.1</v>
+        <v>289.26</v>
       </c>
       <c r="E5" t="n">
-        <v>10.66</v>
+        <v>9.804</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>204.42</v>
+        <v>222.3</v>
       </c>
       <c r="D6" t="n">
-        <v>264.88</v>
+        <v>274.3</v>
       </c>
       <c r="E6" t="n">
-        <v>13.032</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>201.26</v>
+        <v>274.3</v>
       </c>
       <c r="D7" t="n">
-        <v>266.66</v>
+        <v>317.54</v>
       </c>
       <c r="E7" t="n">
-        <v>14.344</v>
+        <v>8.536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>266.66</v>
+        <v>256.26</v>
       </c>
       <c r="D8" t="n">
-        <v>327.52</v>
+        <v>304.06</v>
       </c>
       <c r="E8" t="n">
-        <v>10.368</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>264.88</v>
+        <v>312.98</v>
       </c>
       <c r="D9" t="n">
-        <v>314.58</v>
+        <v>365.58</v>
       </c>
       <c r="E9" t="n">
-        <v>10.172</v>
+        <v>10.652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>350.92</v>
+        <v>289.26</v>
       </c>
       <c r="D10" t="n">
-        <v>433.66</v>
+        <v>334.56</v>
       </c>
       <c r="E10" t="n">
-        <v>7.424</v>
+        <v>7.384</v>
       </c>
     </row>
     <row r="11">
@@ -637,112 +637,112 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>280.06</v>
+        <v>304.06</v>
       </c>
       <c r="D11" t="n">
-        <v>333.52</v>
+        <v>351.62</v>
       </c>
       <c r="E11" t="n">
-        <v>7.948</v>
+        <v>8.608000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>280.1</v>
+        <v>308.74</v>
       </c>
       <c r="D12" t="n">
-        <v>348.86</v>
+        <v>355.64</v>
       </c>
       <c r="E12" t="n">
-        <v>7.904</v>
+        <v>5.896</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>314.58</v>
+        <v>240.58</v>
       </c>
       <c r="D13" t="n">
-        <v>363.86</v>
+        <v>309.04</v>
       </c>
       <c r="E13" t="n">
-        <v>7.364</v>
+        <v>12.696</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>246.74</v>
+        <v>334.56</v>
       </c>
       <c r="D14" t="n">
-        <v>299.54</v>
+        <v>383.22</v>
       </c>
       <c r="E14" t="n">
-        <v>15.156</v>
+        <v>4.628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>327.52</v>
+        <v>317.54</v>
       </c>
       <c r="D15" t="n">
-        <v>388.04</v>
+        <v>374.66</v>
       </c>
       <c r="E15" t="n">
-        <v>7.456</v>
+        <v>5.944</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>333.52</v>
+        <v>365.58</v>
       </c>
       <c r="D16" t="n">
-        <v>377.02</v>
+        <v>430.8</v>
       </c>
       <c r="E16" t="n">
-        <v>5.708</v>
+        <v>7.74</v>
       </c>
     </row>
     <row r="17">
@@ -751,55 +751,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>299.54</v>
+        <v>309.04</v>
       </c>
       <c r="D17" t="n">
-        <v>336.86</v>
+        <v>368.42</v>
       </c>
       <c r="E17" t="n">
-        <v>12.564</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>2</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>pond28</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>363.86</v>
-      </c>
-      <c r="D18" t="n">
-        <v>414.84</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4.396</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>pond8</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>336.86</v>
-      </c>
-      <c r="D19" t="n">
-        <v>398.36</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9.504</v>
+        <v>9.888</v>
       </c>
     </row>
   </sheetData>
